--- a/data/clean_data/3_phalanges_model.xlsx
+++ b/data/clean_data/3_phalanges_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\OneDrive\Desktop\Tesi\Codice\experimental_plots\data\clean_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547E2D95-9726-4032-B25A-3C286EE32025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DE18F7-7497-484B-8546-F570189BB6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general_data" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>prototype weight [g]</t>
   </si>
@@ -94,7 +94,10 @@
     <t>load [%]</t>
   </si>
   <si>
-    <t>9.9</t>
+    <t>Applied Torque [Nm]</t>
+  </si>
+  <si>
+    <t>Motor Torque [Nm]</t>
   </si>
 </sst>
 </file>
@@ -104,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h\.mm"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -122,6 +125,21 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,12 +165,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -463,21 +484,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2">
-        <v>0</v>
-      </c>
       <c r="C1" s="2">
         <v>0</v>
       </c>
@@ -490,33 +508,36 @@
       <c r="F1" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2">
+      <c r="C2" s="2">
         <v>50</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>100</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>150</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>200</v>
       </c>
-      <c r="F2" s="2">
+      <c r="G2" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -530,156 +551,333 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>20</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
+        <f>(9.81*0.2624)*(0.025+(A4/1000))</f>
+        <v>0.11583648000000002</v>
+      </c>
+      <c r="C4" s="3">
         <v>8.4</v>
       </c>
-      <c r="C4" s="3">
+      <c r="D4" s="3">
         <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>6.2</v>
       </c>
       <c r="E4" s="3">
         <v>6.2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="G4" s="2">
         <v>11.2</v>
       </c>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <f>C4*1.21362799263351/100</f>
+        <v>0.10194475138121485</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:L10" si="0">D4*1.21362799263351/100</f>
+        <v>0.10922651933701591</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>7.524493554327763E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>7.524493554327763E-2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="0"/>
+        <v>0.13592633517495312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>30</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
+        <f t="shared" ref="B5:B10" si="1">(9.81*0.2624)*(0.025+(A5/1000))</f>
+        <v>0.14157792000000002</v>
+      </c>
+      <c r="C5" s="3">
         <v>16.3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>11.8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10.7</v>
       </c>
       <c r="E5" s="3">
         <v>10.7</v>
       </c>
       <c r="F5" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="G5" s="3">
         <v>12.9</v>
       </c>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <f t="shared" ref="H5:H10" si="2">C5*1.21362799263351/100</f>
+        <v>0.19782136279926213</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>0.14320810313075419</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.12985819521178557</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.12985819521178557</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>0.15655801104972281</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>0.16731936000000003</v>
+      </c>
+      <c r="C6" s="3">
         <v>20.3</v>
-      </c>
-      <c r="C6" s="3">
-        <v>16.899999999999999</v>
       </c>
       <c r="D6" s="3">
         <v>16.899999999999999</v>
       </c>
       <c r="E6" s="3">
-        <v>18.600000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="F6" s="3">
         <v>18.600000000000001</v>
       </c>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.24636648250460255</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.20510313075506317</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.20510313075506317</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.22573480662983289</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.22573480662983289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>50</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>0.19306080000000006</v>
+      </c>
+      <c r="C7" s="3">
         <v>26.5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="D7" s="3">
         <v>24.2</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <v>23.7</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>17.5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>20.3</v>
       </c>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.32161141804788018</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.29369797421730942</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.2876298342541419</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.21238489871086424</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>0.24636648250460255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>60</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>0.21880224000000001</v>
+      </c>
+      <c r="C8" s="3">
         <v>28.7</v>
       </c>
-      <c r="C8" s="3">
+      <c r="D8" s="3">
         <v>25.4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <v>23.3</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23.1</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25.9</v>
       </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.34831123388581736</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.30826151012891151</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.28277532228360786</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.28034806629834086</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.31432965009207908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>70</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>0.24454368000000004</v>
+      </c>
+      <c r="C9" s="3">
         <v>28.7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>28.2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>25.9</v>
       </c>
       <c r="E9" s="3">
         <v>25.9</v>
       </c>
       <c r="F9" s="3">
+        <v>25.9</v>
+      </c>
+      <c r="G9" s="3">
         <v>25.3</v>
       </c>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.34831123388581736</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.34224309392264984</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.31432965009207908</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.31432965009207908</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.30704788213627804</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>80</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>0.27028512000000005</v>
+      </c>
+      <c r="C10" s="3">
         <v>35</v>
       </c>
-      <c r="C10" s="3">
+      <c r="D10" s="3">
         <v>40</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>37.200000000000003</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>33.799999999999997</v>
       </c>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.42476979742172849</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>0.48545119705340406</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.45146961325966578</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.41020626151012635</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -688,7 +886,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -697,7 +895,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -716,15 +914,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -744,7 +942,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
@@ -764,7 +962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -783,10 +981,25 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>0.5</v>
+        <v>0.51839999999999997</v>
       </c>
       <c r="B4" s="2">
         <v>6.2</v>
@@ -797,16 +1010,36 @@
       <c r="D4" s="2">
         <v>6.7</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="7">
+        <v>11.2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="G4">
+        <f>B4*1.21362799263351/100</f>
+        <v>7.524493554327763E-2</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:K8" si="0">C4*1.21362799263351/100</f>
+        <v>7.524493554327763E-2</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>8.1313075506445176E-2</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>0.13592633517495312</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0.16383977900552385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>1</v>
+        <v>1.0184</v>
       </c>
       <c r="B5" s="2">
         <v>7.3</v>
@@ -823,10 +1056,30 @@
       <c r="F5" s="2">
         <v>12.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" ref="G5:G8" si="1">B5*1.21362799263351/100</f>
+        <v>8.859484346224622E-2</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>8.859484346224622E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>9.466298342541378E-2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.12257642725598451</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>0.15048987108655526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>1.5</v>
+        <v>1.5184</v>
       </c>
       <c r="B6" s="2">
         <v>8.4</v>
@@ -843,10 +1096,30 @@
       <c r="F6" s="2">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.10194475138121485</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0.10922651933701591</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.10194475138121485</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.12985819521178557</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>0.15534438305708931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>2.0184000000000002</v>
       </c>
       <c r="B7" s="2">
         <v>10.1</v>
@@ -863,10 +1136,30 @@
       <c r="F7" s="2">
         <v>12.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.12257642725598451</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>0.12985819521178557</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>0.10922651933701591</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.13592633517495312</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>0.15655801104972281</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2.5</v>
+        <v>2.5184000000000002</v>
       </c>
       <c r="B8" s="2">
         <v>10.1</v>
@@ -874,8 +1167,8 @@
       <c r="C8" s="4">
         <v>0.52777777777777779</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
+      <c r="D8" s="2">
+        <v>9.9</v>
       </c>
       <c r="E8" s="2">
         <v>12.4</v>
@@ -883,16 +1176,36 @@
       <c r="F8" s="2">
         <v>11.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.12257642725598451</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>6.4052588500101929E-3</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>0.1201491712707175</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.15048987108655526</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>0.13592633517495312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
